--- a/data/raw/files28/sa-ma-02-02-20-773-f.xlsx
+++ b/data/raw/files28/sa-ma-02-02-20-773-f.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,153 +360,153 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date and time</t>
+          <t>Sat, 18 Mar 2023 10:47:11</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>question_context (multipleChoice)</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>question_satisfied (smiley)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>question_dec4 (multipleChoice)</t>
+          <t>Leggermente vero...4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>question_dec1 (multipleChoice)</t>
+          <t>Moderatamente vero...5</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>question7scs (multipleChoice)</t>
+          <t>Leggermente falso...6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>question_nervous (smiley)</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>question8scs (multipleChoice)</t>
+          <t>Leggermente falso...8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>question2scs (multipleChoice)</t>
+          <t>Leggermente falso...9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>question_dec2 (multipleChoice)</t>
+          <t>Moderatamente falso...10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>question6scs (multipleChoice)</t>
+          <t>Moderatamente falso...11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>question4scs (multipleChoice)</t>
+          <t>Totalmente vero...12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>question5scs (multipleChoice)</t>
+          <t>Leggermente vero...13</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>question_happiness (smiley)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>question_sad (smiley)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>question1scs (multipleChoice)</t>
+          <t>Moderatamente vero...16</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>question3scs (multipleChoice)</t>
+          <t>Totalmente vero...17</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>question_dec3 (multipleChoice)</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>question_emotion (multiSmiley)</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>yesnoexam (yesno)</t>
+          <t>...20</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>momentary_emotion_yes (multiSmiley)</t>
+          <t>...21</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>exam_preparation (sliderNegPos)</t>
+          <t>...22</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>grade_exp (sliderNeutralPos)</t>
+          <t>...23</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>momentary_emotion_no (multiSmiley)</t>
+          <t>...24</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>emotion_valence_no (smiley)</t>
+          <t>...25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>real_grade (sliderNeutralPos)</t>
+          <t>...26</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>emotion_valence_yes (smiley)</t>
+          <t>...27</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 10:47:11</t>
+          <t>Sat, 18 Mar 2023 17:32:39</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -515,16 +515,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,60 +533,60 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="N2">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>Totalmente vero</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="N2">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 17:32:39</t>
+          <t>Sat, 18 Mar 2023 19:58:22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -599,12 +599,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -613,47 +613,47 @@
         </is>
       </c>
       <c r="G3">
+        <v>77</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Totalmente falso</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="N3">
-        <v>24</v>
-      </c>
       <c r="O3">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -663,19 +663,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 19:58:22</t>
+          <t>Sat, 18 Mar 2023 21:13:56</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -688,71 +688,71 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>36</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>77</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>62</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 21:13:56</t>
+          <t>Sat, 25 Mar 2023 10:28:08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -777,12 +777,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -791,54 +791,54 @@
         </is>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="N5">
+        <v>43</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>Totalmente vero</t>
         </is>
       </c>
-      <c r="N5">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>36</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
           <t>Totalmente falso</t>
@@ -846,14 +846,14 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 10:28:08</t>
+          <t>Sat, 25 Mar 2023 17:19:02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -862,11 +862,11 @@
         </is>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -876,15 +876,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -913,14 +913,14 @@
         </is>
       </c>
       <c r="N6">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 17:19:02</t>
+          <t>Sat, 25 Mar 2023 19:42:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -969,21 +969,21 @@
         </is>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -993,16 +993,16 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 19:42:36</t>
+          <t>Sat, 25 Mar 2023 21:21:52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1040,16 +1040,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1058,47 +1058,47 @@
         </is>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N8">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1113,14 +1113,14 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress, happy, angry</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 21:21:52</t>
+          <t>Sat, 01 Apr 2023 11:02:10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,11 +1143,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G9">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="N9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1197,19 +1197,19 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>stress, happy, angry</t>
+          <t>happy, stress, angry</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 11:02:10</t>
+          <t>Sat, 01 Apr 2023 14:51:40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1218,34 +1218,34 @@
         </is>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G10">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="N10">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1286,19 +1286,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>happy, stress, angry</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 14:51:40</t>
+          <t>Sat, 01 Apr 2023 17:37:16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1307,39 +1307,39 @@
         </is>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1354,49 +1354,49 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="N11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress, happy, fear</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 17:37:16</t>
+          <t>Sat, 01 Apr 2023 19:50:19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1410,73 +1410,73 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G12">
+        <v>91</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
         <v>100</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="N12">
-        <v>20</v>
-      </c>
-      <c r="O12">
-        <v>43</v>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>stress, happy, fear</t>
+          <t>sad, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 19:50:19</t>
+          <t>Sat, 01 Apr 2023 21:17:05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="G13">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1527,45 +1527,45 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="N13">
+        <v>26</v>
+      </c>
+      <c r="O13">
+        <v>74</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>Totalmente vero</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="N13">
-        <v>8</v>
-      </c>
-      <c r="O13">
-        <v>100</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>sad, angry, stress</t>
+          <t>angry, stress</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 21:17:05</t>
+          <t>Sat, 08 Apr 2023 10:14:09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1578,17 +1578,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G14">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1616,19 +1616,19 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="N14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="O14">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1637,91 +1637,91 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>angry, stress</t>
+          <t>sad, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 10:14:09</t>
+          <t>Sat, 08 Apr 2023 14:23:51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N15">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1731,19 +1731,19 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>sad, angry, stress</t>
+          <t>angry, stress</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 14:23:51</t>
+          <t>Sat, 08 Apr 2023 17:57:54</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1752,87 +1752,87 @@
         </is>
       </c>
       <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Totalmente falso</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="N16">
+        <v>46</v>
+      </c>
+      <c r="O16">
         <v>73</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>72</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="N16">
-        <v>71</v>
-      </c>
-      <c r="O16">
-        <v>67</v>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>angry, stress</t>
+          <t>sad, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 17:57:54</t>
+          <t>Sat, 08 Apr 2023 19:58:27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1841,21 +1841,21 @@
         </is>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G17">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1883,23 +1883,23 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N17">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="O17">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1914,14 +1914,14 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>sad, angry, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 19:58:27</t>
+          <t>Sat, 08 Apr 2023 21:30:39</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,63 +1939,63 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="N18">
+        <v>57</v>
+      </c>
+      <c r="O18">
+        <v>35</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>Totalmente falso</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="N18">
-        <v>22</v>
-      </c>
-      <c r="O18">
-        <v>100</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>Totalmente falso</t>
@@ -2003,14 +2003,14 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 21:30:39</t>
+          <t>Sat, 15 Apr 2023 10:45:31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2033,20 +2033,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2056,50 +2056,50 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N19">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="O19">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>happy, angry, stress</t>
+          <t>stress, fear, happy, sad</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 10:45:31</t>
+          <t>Sat, 15 Apr 2023 17:51:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2117,20 +2117,20 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2140,29 +2140,29 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N20">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2181,14 +2181,14 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>stress, fear, happy, sad</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 17:51:34</t>
+          <t>Sat, 15 Apr 2023 19:40:22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2215,11 +2215,11 @@
         </is>
       </c>
       <c r="G21">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="N21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O21">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2265,19 +2265,19 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>stress, happy, fear</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 19:40:22</t>
+          <t>Sun, 16 Apr 2023 20:37:28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2286,61 +2286,61 @@
         </is>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>41</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="G22">
-        <v>65</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="N22">
-        <v>24</v>
-      </c>
       <c r="O22">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2349,96 +2349,115 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>stress, happy, fear</t>
-        </is>
+          <t>Totalmente falso</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="V22">
+        <v>39</v>
+      </c>
+      <c r="W22">
+        <v>23</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sun, 16 Apr 2023 20:37:28</t>
+          <t>Mon, 17 Apr 2023 20:28:33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C23">
+        <v>59</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="N23">
+        <v>68</v>
+      </c>
+      <c r="O23">
         <v>1</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>41</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>50</v>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2448,42 +2467,39 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="V23">
-        <v>39</v>
-      </c>
-      <c r="W23">
-        <v>23</v>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
-      </c>
-      <c r="Y23">
-        <v>61</v>
+      <c r="Z23">
+        <v>69</v>
+      </c>
+      <c r="AA23">
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mon, 17 Apr 2023 20:28:33</t>
+          <t>Sat, 22 Apr 2023 10:59:03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2501,7 +2517,7 @@
         </is>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2510,7 +2526,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2525,19 +2541,19 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N24">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2546,40 +2562,24 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Z24">
-        <v>69</v>
-      </c>
-      <c r="AA24">
-        <v>54</v>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>happy, stress</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 10:59:03</t>
+          <t>Sat, 22 Apr 2023 14:16:03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2602,20 +2602,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2630,28 +2630,28 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N25">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O25">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 14:16:03</t>
+          <t>Sat, 22 Apr 2023 17:33:29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2677,11 +2677,11 @@
         </is>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2691,20 +2691,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2724,18 +2724,18 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N26">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 17:33:29</t>
+          <t>Sat, 22 Apr 2023 19:18:10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2803,24 +2803,24 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N27">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="O27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2846,7 +2846,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 19:18:10</t>
+          <t>Sat, 22 Apr 2023 21:41:19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2873,26 +2873,26 @@
         </is>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2902,18 +2902,18 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N28">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2935,7 +2935,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 21:41:19</t>
+          <t>Sat, 29 Apr 2023 10:06:45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="G29">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2971,43 +2971,43 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N29">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -3017,14 +3017,14 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>happy, fear, stress</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 10:06:45</t>
+          <t>Sat, 29 Apr 2023 14:24:08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3075,45 +3075,45 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N30">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>happy, fear, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 14:24:08</t>
+          <t>Sat, 29 Apr 2023 19:43:19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3122,25 +3122,25 @@
         </is>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G31">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3149,34 +3149,34 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="N31">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O31">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3185,24 +3185,24 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy, angry</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 19:43:19</t>
+          <t>Sat, 29 Apr 2023 21:20:17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3220,20 +3220,20 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3253,19 +3253,19 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N32">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O32">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3279,19 +3279,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>happy, angry</t>
+          <t>happy, stress, fear</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 21:20:17</t>
+          <t>Sat, 06 May 2023 10:07:42</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3327,22 +3327,22 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3351,10 +3351,10 @@
         </is>
       </c>
       <c r="N33">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O33">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3363,24 +3363,24 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>happy, stress, fear</t>
+          <t>happy, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 10:07:42</t>
+          <t>Sat, 06 May 2023 14:51:56</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3389,11 +3389,11 @@
         </is>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3416,38 +3416,38 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
           <t>Totalmente falso</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
       <c r="N34">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="O34">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3457,19 +3457,19 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>happy, angry, stress</t>
+          <t>stress, happy</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 14:51:56</t>
+          <t>Sat, 06 May 2023 17:26:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3478,11 +3478,11 @@
         </is>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3505,12 +3505,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3529,14 +3529,14 @@
         </is>
       </c>
       <c r="N35">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O35">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3546,32 +3546,32 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>stress, happy</t>
+          <t>stress, angry, happy</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 17:26:30</t>
+          <t>Sat, 06 May 2023 19:25:56</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C36">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3594,17 +3594,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3618,10 +3618,10 @@
         </is>
       </c>
       <c r="N36">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O36">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3635,32 +3635,32 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>stress, angry, happy</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 19:25:56</t>
+          <t>Sat, 06 May 2023 21:32:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3670,11 +3670,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3683,17 +3683,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3703,18 +3703,18 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N37">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O37">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3724,28 +3724,28 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>happy, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 21:32:55</t>
+          <t>Sat, 13 May 2023 10:16:49</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C38">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G38">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3796,14 +3796,14 @@
         </is>
       </c>
       <c r="N38">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O38">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3818,19 +3818,19 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>happy, angry, stress</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 10:16:49</t>
+          <t>Sat, 13 May 2023 14:43:57</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C39">
@@ -3843,40 +3843,40 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G39">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3885,10 +3885,10 @@
         </is>
       </c>
       <c r="N39">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O39">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3914,7 +3914,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 14:43:57</t>
+          <t>Sat, 13 May 2023 17:19:16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3932,25 +3932,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G40">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="N40">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="O40">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 17:19:16</t>
+          <t>Sat, 13 May 2023 19:47:08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4012,16 +4012,16 @@
         </is>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -4044,17 +4044,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="N41">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="O41">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4075,24 +4075,24 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>sad, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 19:47:08</t>
+          <t>Sat, 13 May 2023 21:01:46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4101,25 +4101,25 @@
         </is>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -4128,12 +4128,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4143,19 +4143,19 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N42">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="O42">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -4174,14 +4174,14 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>sad, angry, stress</t>
+          <t>happy, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 21:01:46</t>
+          <t>Sat, 20 May 2023 10:46:47</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4190,11 +4190,11 @@
         </is>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4204,11 +4204,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G43">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="N43">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="O43">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4263,14 +4263,14 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>happy, angry, stress</t>
+          <t>happy, angry, fear, stress</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 10:46:47</t>
+          <t>Sat, 20 May 2023 15:00:12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4293,11 +4293,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G44">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4330,14 +4330,14 @@
         </is>
       </c>
       <c r="N44">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="O44">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4352,14 +4352,14 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>happy, angry, fear, stress</t>
+          <t>happy, angry, stress</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 15:00:12</t>
+          <t>Sat, 20 May 2023 17:35:38</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G45">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4419,14 +4419,14 @@
         </is>
       </c>
       <c r="N45">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O45">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4436,19 +4436,19 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>happy, angry, stress</t>
+          <t>happy, fear, stress</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 17:35:38</t>
+          <t>Sat, 20 May 2023 19:11:09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="G46">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4508,10 +4508,10 @@
         </is>
       </c>
       <c r="N46">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="O46">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4525,19 +4525,19 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>happy, fear, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 19:11:09</t>
+          <t>Sat, 20 May 2023 21:20:14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="G47">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4578,12 +4578,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4597,10 +4597,10 @@
         </is>
       </c>
       <c r="N47">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O47">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4614,19 +4614,19 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 21:20:14</t>
+          <t>Sun, 21 May 2023 20:37:32</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="G48">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4662,34 +4662,34 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N48">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="O48">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -4703,47 +4703,66 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>happy, stress</t>
-        </is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="V48">
+        <v>26</v>
+      </c>
+      <c r="W48">
+        <v>24</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>fear, stress</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sun, 21 May 2023 20:37:32</t>
+          <t>Mon, 22 May 2023 20:29:26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C49">
+        <v>57</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="G49">
         <v>23</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="G49">
-        <v>72</v>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>Leggermente vero</t>
@@ -4756,12 +4775,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4775,14 +4794,14 @@
         </is>
       </c>
       <c r="N49">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="O49">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4797,33 +4816,30 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
+          <t>happy, stress</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="V49">
-        <v>26</v>
-      </c>
-      <c r="W49">
-        <v>24</v>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>fear, stress</t>
-        </is>
-      </c>
-      <c r="Y49">
-        <v>35</v>
+      <c r="Z49">
+        <v>67</v>
+      </c>
+      <c r="AA49">
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mon, 22 May 2023 20:29:26</t>
+          <t>Tue, 23 May 2023 20:14:11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4832,7 +4848,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4857,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4850,7 +4866,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4859,7 +4875,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4869,7 +4885,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4879,14 +4895,14 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="N50">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O50">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -4919,25 +4935,25 @@
         </is>
       </c>
       <c r="Z50">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA50">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tue, 23 May 2023 20:14:11</t>
+          <t>Wed, 24 May 2023 20:25:11</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C51">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4946,25 +4962,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4974,7 +4990,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4984,18 +5000,18 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N51">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -5005,7 +5021,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -5024,16 +5040,16 @@
         </is>
       </c>
       <c r="Z51">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA51">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wed, 24 May 2023 20:25:11</t>
+          <t>Thu, 25 May 2023 20:33:11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5042,25 +5058,25 @@
         </is>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G52">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -5069,7 +5085,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5079,12 +5095,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5093,14 +5109,14 @@
         </is>
       </c>
       <c r="N52">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O52">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -5110,7 +5126,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -5129,16 +5145,16 @@
         </is>
       </c>
       <c r="Z52">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AA52">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Thu, 25 May 2023 20:33:11</t>
+          <t>Sat, 27 May 2023 10:11:46</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5147,7 +5163,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5181,7 @@
         </is>
       </c>
       <c r="G53">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -5179,7 +5195,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5198,19 +5214,19 @@
         </is>
       </c>
       <c r="N53">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O53">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -5218,32 +5234,16 @@
           <t>Leggermente falso</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>happy, stress</t>
         </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Z53">
-        <v>66</v>
-      </c>
-      <c r="AA53">
-        <v>61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 10:11:46</t>
+          <t>Sat, 27 May 2023 14:15:03</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5270,11 +5270,11 @@
         </is>
       </c>
       <c r="G54">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5284,12 +5284,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -5303,19 +5303,19 @@
         </is>
       </c>
       <c r="N54">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -5325,14 +5325,14 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress, happy</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 14:15:03</t>
+          <t>Sat, 27 May 2023 17:34:56</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5341,11 +5341,11 @@
         </is>
       </c>
       <c r="C55">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5359,11 +5359,11 @@
         </is>
       </c>
       <c r="G55">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5383,23 +5383,23 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N55">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O55">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>stress, happy</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 17:34:56</t>
+          <t>Sat, 27 May 2023 20:00:11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5430,11 +5430,11 @@
         </is>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5444,11 +5444,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G56">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5457,12 +5457,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5472,19 +5472,19 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N56">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O56">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -5503,27 +5503,27 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>angry, stress, happy</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 20:00:11</t>
+          <t>Sat, 27 May 2023 21:21:21</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5537,21 +5537,21 @@
         </is>
       </c>
       <c r="G57">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5561,23 +5561,23 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="N57">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O57">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5587,60 +5587,60 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>angry, stress, happy</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 21:21:21</t>
+          <t>Sat, 03 Jun 2023 10:44:18</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G58">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5650,23 +5650,23 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N58">
         <v>28</v>
       </c>
       <c r="O58">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5681,14 +5681,14 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>stress, happy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 10:44:18</t>
+          <t>Sat, 03 Jun 2023 14:59:03</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5706,30 +5706,30 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5744,18 +5744,18 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N59">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="O59">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5765,28 +5765,28 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>stress, happy</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 14:59:03</t>
+          <t>Sat, 03 Jun 2023 17:59:57</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="G60">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5833,18 +5833,18 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O60">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5859,55 +5859,55 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy, stress, fear</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 17:59:57</t>
+          <t>Sat, 03 Jun 2023 19:30:30</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C61">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G61">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5917,23 +5917,23 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N61">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="O61">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -5948,14 +5948,14 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>happy, stress, fear</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 19:30:30</t>
+          <t>Sat, 03 Jun 2023 21:17:44</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5978,25 +5978,25 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G62">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6015,10 +6015,10 @@
         </is>
       </c>
       <c r="N62">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="O62">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -6036,95 +6036,6 @@
         </is>
       </c>
       <c r="S62" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Sat, 03 Jun 2023 21:17:44</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Né spiacevole né piacevole</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>25</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="G63">
-        <v>22</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="N63">
-        <v>27</v>
-      </c>
-      <c r="O63">
-        <v>24</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
         <is>
           <t>stress, happy</t>
         </is>
